--- a/2018_ese.xlsx
+++ b/2018_ese.xlsx
@@ -397,7 +397,7 @@
     <t xml:space="preserve">캠퍼스CEO</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">e</t>
   </si>
   <si>
     <t xml:space="preserve">0004597001</t>
@@ -756,7 +756,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J59" activeCellId="0" sqref="J59"/>
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -767,7 +767,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="7" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="7" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -2128,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>120</v>
       </c>

--- a/2018_ese.xlsx
+++ b/2018_ese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
   <si>
     <t xml:space="preserve">전공선택</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">전학년</t>
   </si>
   <si>
-    <t xml:space="preserve">0007494041</t>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">강우철</t>
@@ -37,46 +37,22 @@
     <t xml:space="preserve">현장교육.실습(Ⅰ-1)</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007494025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007494024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007494023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007494022</t>
-  </si>
-  <si>
     <t xml:space="preserve">황광일</t>
   </si>
   <si>
-    <t xml:space="preserve">0007494021</t>
-  </si>
-  <si>
     <t xml:space="preserve">전경구</t>
   </si>
   <si>
-    <t xml:space="preserve">0007494043</t>
-  </si>
-  <si>
     <t xml:space="preserve">조중휘</t>
   </si>
   <si>
-    <t xml:space="preserve">0007494042</t>
-  </si>
-  <si>
     <t xml:space="preserve">교양필수</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">XAA1358030</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">전광길</t>
@@ -85,300 +61,147 @@
     <t xml:space="preserve">대학수학(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAA1359008</t>
-  </si>
-  <si>
     <t xml:space="preserve">대학수학(2)</t>
   </si>
   <si>
     <t xml:space="preserve">전공기초</t>
   </si>
   <si>
-    <t xml:space="preserve">0006799001</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">C언어프로그래밍(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006843001</t>
-  </si>
-  <si>
     <t xml:space="preserve">강석훈</t>
   </si>
   <si>
     <t xml:space="preserve">C언어프로그래밍(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">XAA1333001</t>
-  </si>
-  <si>
     <t xml:space="preserve">이산수학</t>
   </si>
   <si>
-    <t xml:space="preserve">0007800102</t>
-  </si>
-  <si>
     <t xml:space="preserve">자기설계세미나 I</t>
   </si>
   <si>
-    <t xml:space="preserve">0007800103</t>
-  </si>
-  <si>
     <t xml:space="preserve">이영섭</t>
   </si>
   <si>
-    <t xml:space="preserve">0007800104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007801036</t>
-  </si>
-  <si>
     <t xml:space="preserve">자기설계세미나II</t>
   </si>
   <si>
-    <t xml:space="preserve">0007801038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007801037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0002603001</t>
-  </si>
-  <si>
     <t xml:space="preserve">창의설계입문</t>
   </si>
   <si>
-    <t xml:space="preserve">0002603002</t>
-  </si>
-  <si>
     <t xml:space="preserve">전공필수</t>
   </si>
   <si>
-    <t xml:space="preserve">0004264001</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">디지털논리회로</t>
   </si>
   <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0004264002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0004262001</t>
-  </si>
-  <si>
     <t xml:space="preserve">임베디드시스템개론</t>
   </si>
   <si>
-    <t xml:space="preserve">0006827001</t>
-  </si>
-  <si>
     <t xml:space="preserve">회로및소자</t>
   </si>
   <si>
-    <t xml:space="preserve">0006827002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0004245001</t>
-  </si>
-  <si>
     <t xml:space="preserve">최병조</t>
   </si>
   <si>
     <t xml:space="preserve">MATLAB이해및실습</t>
   </si>
   <si>
-    <t xml:space="preserve">0004245002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006833001</t>
-  </si>
-  <si>
     <t xml:space="preserve">오픈소스HW기초</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3038001</t>
-  </si>
-  <si>
     <t xml:space="preserve">데이터구조</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3038002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006800001</t>
-  </si>
-  <si>
     <t xml:space="preserve">마이크로컨트롤러구조</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3045001</t>
-  </si>
-  <si>
     <t xml:space="preserve">알고리즘</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3045002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001770001</t>
-  </si>
-  <si>
     <t xml:space="preserve">데이터베이스</t>
   </si>
   <si>
-    <t xml:space="preserve">0006816001</t>
-  </si>
-  <si>
     <t xml:space="preserve">랜덤프로세스</t>
   </si>
   <si>
-    <t xml:space="preserve">0006835001</t>
-  </si>
-  <si>
     <t xml:space="preserve">마이크로컨트롤러응용</t>
   </si>
   <si>
-    <t xml:space="preserve">0006835002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006834001</t>
-  </si>
-  <si>
     <t xml:space="preserve">선형시스템</t>
   </si>
   <si>
-    <t xml:space="preserve">0006801001</t>
-  </si>
-  <si>
     <t xml:space="preserve">신호처리입문</t>
   </si>
   <si>
-    <t xml:space="preserve">IAB6067001</t>
-  </si>
-  <si>
     <t xml:space="preserve">통신공학</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">0006836001</t>
-  </si>
-  <si>
     <t xml:space="preserve">네트워크구조및설계</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3005001</t>
-  </si>
-  <si>
     <t xml:space="preserve">임베디드SW공학</t>
   </si>
   <si>
-    <t xml:space="preserve">0006808001</t>
-  </si>
-  <si>
     <t xml:space="preserve">임베디드구조</t>
   </si>
   <si>
-    <t xml:space="preserve">0006814001</t>
-  </si>
-  <si>
     <t xml:space="preserve">펌웨어설계</t>
   </si>
   <si>
-    <t xml:space="preserve">0006814002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006842001</t>
-  </si>
-  <si>
     <t xml:space="preserve">디바이스드라이버개발</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3052001</t>
-  </si>
-  <si>
     <t xml:space="preserve">센서공학</t>
   </si>
   <si>
-    <t xml:space="preserve">IAB6079001</t>
-  </si>
-  <si>
     <t xml:space="preserve">영상처리</t>
   </si>
   <si>
-    <t xml:space="preserve">0004260001</t>
-  </si>
-  <si>
     <t xml:space="preserve">임베디드통신시스템</t>
   </si>
   <si>
-    <t xml:space="preserve">0003413001</t>
-  </si>
-  <si>
     <t xml:space="preserve">제어공학</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3054001</t>
-  </si>
-  <si>
     <t xml:space="preserve">캡스턴디자인(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">IAC3058001</t>
-  </si>
-  <si>
     <t xml:space="preserve">캡스턴디자인(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">0004259001</t>
-  </si>
-  <si>
     <t xml:space="preserve">객체기반SW설계</t>
   </si>
   <si>
-    <t xml:space="preserve">0006840001</t>
-  </si>
-  <si>
     <t xml:space="preserve">고급알고리즘</t>
   </si>
   <si>
-    <t xml:space="preserve">0006817001</t>
-  </si>
-  <si>
     <t xml:space="preserve">로봇시스템</t>
   </si>
   <si>
-    <t xml:space="preserve">0004268001</t>
-  </si>
-  <si>
     <t xml:space="preserve">부호및정보이론</t>
   </si>
   <si>
-    <t xml:space="preserve">0006837001</t>
-  </si>
-  <si>
     <t xml:space="preserve">사물인터넷</t>
   </si>
   <si>
-    <t xml:space="preserve">0004270001</t>
-  </si>
-  <si>
     <t xml:space="preserve">임베디드비젼시스템</t>
   </si>
   <si>
@@ -388,7 +211,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">0003823001</t>
+    <t xml:space="preserve">e</t>
   </si>
   <si>
     <t xml:space="preserve">김관호</t>
@@ -397,142 +220,79 @@
     <t xml:space="preserve">캠퍼스CEO</t>
   </si>
   <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0004597001</t>
-  </si>
-  <si>
     <t xml:space="preserve">취업경력개발원</t>
   </si>
   <si>
     <t xml:space="preserve">INU 리더십특강</t>
   </si>
   <si>
-    <t xml:space="preserve">0005402001</t>
-  </si>
-  <si>
     <t xml:space="preserve">조태준</t>
   </si>
   <si>
     <t xml:space="preserve">평생교육실습</t>
   </si>
   <si>
-    <t xml:space="preserve">0005403001</t>
-  </si>
-  <si>
     <t xml:space="preserve">김기준</t>
   </si>
   <si>
     <t xml:space="preserve">성공창업전략</t>
   </si>
   <si>
-    <t xml:space="preserve">0005404001</t>
-  </si>
-  <si>
     <t xml:space="preserve">창업사례분석</t>
   </si>
   <si>
-    <t xml:space="preserve">0006102001</t>
-  </si>
-  <si>
     <t xml:space="preserve">백형배</t>
   </si>
   <si>
     <t xml:space="preserve">공직사회의이해</t>
   </si>
   <si>
-    <t xml:space="preserve">0006102002</t>
-  </si>
-  <si>
     <t xml:space="preserve">이재윤</t>
   </si>
   <si>
-    <t xml:space="preserve">0007048001</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCS의 이해</t>
   </si>
   <si>
-    <t xml:space="preserve">0007048002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007443001</t>
-  </si>
-  <si>
     <t xml:space="preserve">고용시장의이해</t>
   </si>
   <si>
-    <t xml:space="preserve">0007443002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0008589001</t>
-  </si>
-  <si>
     <t xml:space="preserve">생활속의창업특허</t>
   </si>
   <si>
-    <t xml:space="preserve">0008591001</t>
-  </si>
-  <si>
     <t xml:space="preserve">스타트업비즈니스매너</t>
   </si>
   <si>
-    <t xml:space="preserve">0008592001</t>
-  </si>
-  <si>
     <t xml:space="preserve">스타트업앱개발스킬</t>
   </si>
   <si>
-    <t xml:space="preserve">0008594001</t>
-  </si>
-  <si>
     <t xml:space="preserve">창업실습2</t>
   </si>
   <si>
-    <t xml:space="preserve">0008596001</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">창업현장실습2</t>
   </si>
   <si>
-    <t xml:space="preserve">WAA1009001</t>
-  </si>
-  <si>
     <t xml:space="preserve">김은주</t>
   </si>
   <si>
     <t xml:space="preserve">평생교육경영론</t>
   </si>
   <si>
-    <t xml:space="preserve">WAA1010001</t>
-  </si>
-  <si>
     <t xml:space="preserve">유선주</t>
   </si>
   <si>
     <t xml:space="preserve">평생교육프로그램개발론</t>
   </si>
   <si>
-    <t xml:space="preserve">WAA1011001</t>
-  </si>
-  <si>
     <t xml:space="preserve">김은석</t>
   </si>
   <si>
     <t xml:space="preserve">청소년교육개론</t>
   </si>
   <si>
-    <t xml:space="preserve">0007049001</t>
-  </si>
-  <si>
     <t xml:space="preserve">핵심취업전략특강</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0007049002</t>
   </si>
 </sst>
 </file>
@@ -753,17 +513,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
@@ -778,7 +538,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -790,9 +550,6 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -801,8 +558,8 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -813,9 +570,6 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -824,8 +578,8 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -836,9 +590,6 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -847,8 +598,8 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="C4" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -859,9 +610,6 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -870,11 +618,11 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>2</v>
@@ -882,9 +630,6 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -893,11 +638,11 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>2</v>
@@ -905,9 +650,6 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -916,11 +658,11 @@
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+      <c r="C7" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>2</v>
@@ -928,9 +670,6 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -939,8 +678,8 @@
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+      <c r="C8" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -951,42 +690,36 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -995,182 +728,158 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -1179,44 +888,38 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -1225,21 +928,18 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -1248,125 +948,107 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1374,22 +1056,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1397,22 +1076,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1420,137 +1096,119 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1558,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1570,10 +1228,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1581,22 +1236,19 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1604,22 +1256,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1627,22 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1650,22 +1296,19 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1673,22 +1316,19 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1696,56 +1336,50 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
@@ -1754,79 +1388,67 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1834,22 +1456,19 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1857,22 +1476,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1880,22 +1496,19 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1903,22 +1516,19 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1926,33 +1536,30 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -1961,21 +1568,18 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -1984,10 +1588,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1995,22 +1596,19 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2018,22 +1616,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E55" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2041,22 +1636,19 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E56" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2064,22 +1656,19 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E57" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2087,22 +1676,19 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2110,508 +1696,441 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
